--- a/public/templates/disease-historical-import-template.xlsx
+++ b/public/templates/disease-historical-import-template.xlsx
@@ -399,17 +399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="1" max="1" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>DISEASE HISTORICAL DATA IMPORT TEMPLATE</v>
+        <v>DISEASE SURVEILLANCE TEST DATA - STRATEGIC OUTBREAK SCENARIOS</v>
       </c>
     </row>
     <row r="2">
@@ -419,87 +419,87 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>INSTRUCTIONS:</v>
+        <v>📊 THIS TEMPLATE CONTAINS PRE-CONFIGURED OUTBREAK SCENARIOS FOR TESTING</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1. Fill in your disease data in the "Data" sheet</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2. Delete the example rows before importing</v>
+        <v>🎯 TESTING OBJECTIVES:</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3. Maximum 1000 rows per import</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4. File size limit: 5MB</v>
+        <v>This template is designed to trigger ALL outbreak alert levels:</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>5. Save as .xlsx or .xls format</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>🔴 CRITICAL ALERTS (3 scenarios):</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>COLUMN DESCRIPTIONS:</v>
+        <v xml:space="preserve">   • Dengue city-wide epidemic (35 cases across 12 barangays)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v xml:space="preserve">   • Dengue Hemorrhagic Fever cluster (45 cases, 6 critical, 12 severe)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Record Date (REQUIRED):</v>
+        <v xml:space="preserve">   • Measles school epidemic (38 cases, 5 critical, 10 severe)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve">  - Format: YYYY-MM-DD (e.g., 2024-01-15) or MM/DD/YYYY</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">  - Must be in the past (cannot be future date)</v>
+        <v>🟠 HIGH RISK ALERTS (8 scenarios):</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve">  - Excel date format is also supported</v>
+        <v xml:space="preserve">   • Dengue outbreaks: Gredu (10), New Malitbog (9), Cagangohan (11)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v xml:space="preserve">   • Measles outbreaks: Kasilak (6), New Visayas (7)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Disease Type (REQUIRED):</v>
+        <v xml:space="preserve">   • Malaria in Waterfall (6 cases)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve">  - Must be one of: HIV/AIDS, Dengue, Malaria, Measles, Rabies, Pregnancy Complications, Other</v>
+        <v xml:space="preserve">   • Typhoid Fever in Malativas (5 cases)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve">  - Case-insensitive (e.g., "dengue" or "Dengue" both work)</v>
+        <v xml:space="preserve">   • Pneumonia in Sindaton (4 cases)</v>
       </c>
     </row>
     <row r="20">
@@ -509,72 +509,72 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Custom Disease Name (CONDITIONAL):</v>
+        <v>🟡 MEDIUM ALERTS (12 scenarios):</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">  - Required ONLY if Disease Type = "Other"</v>
+        <v xml:space="preserve">   • Malaria: Dapco, Datu Abdul Dadia, Consolacion (3 cases each)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">  - Leave blank for standard disease types</v>
+        <v xml:space="preserve">   • Dengue: Cacao, Outside Zone, San Vicente (5 cases each)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve">  - Example: "Typhoid Fever", "Leptospirosis"</v>
+        <v xml:space="preserve">   • Measles: Maduao, Kauswagan, A.O. Floirendo (3 cases each)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v xml:space="preserve">   • Leptospirosis, Hand-Foot-Mouth, Diarrhea (3 cases each)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Case Count (REQUIRED):</v>
+        <v xml:space="preserve">   • Animal Bite cases: Little Panay, Mabunao (1 case each)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve">  - Must be a positive integer (1 or greater)</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve">  - Number of confirmed cases for this record</v>
+        <v>🟢 NORMAL STATUS:</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v xml:space="preserve">   • Animal Bite - scattered cases (below threshold)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Barangay (REQUIRED):</v>
+        <v xml:space="preserve">   • Other diseases - distributed cases (below thresholds)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v xml:space="preserve">  - Must match exact barangay name in the system</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve">  - Case-insensitive matching</v>
+        <v>📅 DATE RANGE: Last 30 days (recent outbreak data)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">  - Examples: "Datu Abdul Dadia", "San Francisco", "Poblacion"</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">  - See "Barangay List" sheet for valid barangays</v>
+        <v>⚠️ DO NOT MODIFY DATA - Import as-is for accurate testing</v>
       </c>
     </row>
     <row r="35">
@@ -584,77 +584,77 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Source (OPTIONAL):</v>
+        <v>OUTBREAK DETECTION THRESHOLDS:</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">  - Reference to data source</v>
+        <v xml:space="preserve">   • Dengue: 5 cases in 14 days</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve">  - Examples: "Health Center Report", "Laboratory Confirmation", "Clinic Records"</v>
+        <v xml:space="preserve">   • Measles: 3 cases in 14 days</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">  - Defaults to "Excel Import" if left blank</v>
+        <v xml:space="preserve">   • Malaria: 3 cases in 14 days</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v xml:space="preserve">   • Rabies/Animal Bite: 1 case in 7 days</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Notes (OPTIONAL):</v>
+        <v xml:space="preserve">   • Custom Disease: 3 cases in 14 days</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v xml:space="preserve">  - Additional information or comments</v>
+        <v xml:space="preserve">   • City-Wide: 2x barangay threshold</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve">  - Any relevant details about this record</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>RISK LEVEL CALCULATIONS:</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>VALIDATION RULES:</v>
+        <v xml:space="preserve">   • CRITICAL: ≥10 cases city-wide OR ≥3x threshold single barangay</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve">  ✓ All dates must be in the past</v>
+        <v xml:space="preserve">   • HIGH: ≥1.5x threshold in single barangay</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">  ✓ Case Count must be &gt; 0</v>
+        <v xml:space="preserve">   • MEDIUM: Meets exact threshold</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve">  ✓ Disease Type must match allowed values</v>
+        <v xml:space="preserve">   • NORMAL: Below threshold</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve">  ✓ Barangay name must exist in system</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve">  ✓ Custom Disease Name required when Disease Type = "Other"</v>
+        <v>COLUMN DESCRIPTIONS:</v>
       </c>
     </row>
     <row r="51">
@@ -664,39 +664,174 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>ERROR HANDLING:</v>
+        <v>Record Date (REQUIRED):</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">  - The import will show detailed validation errors</v>
+        <v xml:space="preserve">   • Format: YYYY-MM-DD</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">  - Errors include row number and specific field issues</v>
+        <v xml:space="preserve">   • Automatically generated within last 30 days</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve">  - Fix all errors before importing</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">  - Only valid records will be imported</v>
+        <v>Disease Type (REQUIRED):</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v xml:space="preserve">   • Values: Dengue, Malaria, Measles, Animal Bite, Custom Disease</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Custom Disease Name (CONDITIONAL):</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve">   • Required only if Disease Type = "Custom Disease"</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v xml:space="preserve">   • Examples in template: Leptospirosis, Typhoid, Pneumonia, etc.</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Case Count (REQUIRED):</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve">   • Number of confirmed cases for this record</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve">   • Strategically assigned to trigger outbreak thresholds</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Severity (REQUIRED):</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">   • Values: critical, severe, moderate, mild</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve">   • Critical: Life-threatening, requires immediate ICU care</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve">   • Severe: Serious symptoms, hospitalization required</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve">   • Moderate: Symptomatic but stable, outpatient care</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v xml:space="preserve">   • Mild: Minor symptoms, minimal medical intervention</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve">   • Outbreak risk calculations consider severity distribution</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Barangay (REQUIRED):</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v xml:space="preserve">   • Must match exact barangay name from system</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve">   • Strategically clustered for outbreak scenarios</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Source (OPTIONAL):</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve">   • Reference to data source</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Notes (OPTIONAL):</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v xml:space="preserve">   • Additional context about the outbreak scenario</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A83"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,9 +840,10 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
-    <col min="7" max="7" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -715,103 +851,8175 @@
         <v>Record Date</v>
       </c>
       <c r="B1" t="str">
+        <v>Severity</v>
+      </c>
+      <c r="C1" t="str">
         <v>Disease Type</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Custom Disease Name</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Case Count</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Barangay</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Source</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024-01-15</v>
+        <v>2025-12-24</v>
       </c>
       <c r="B2" t="str">
-        <v>Dengue</v>
+        <v>critical</v>
       </c>
       <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Datu Abdul Dadia</v>
+        <v>Animal Bite</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>Health Center Report</v>
+        <v>Sindaton</v>
       </c>
       <c r="G2" t="str">
-        <v>Example record - delete this row before importing your data</v>
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Routine dog bite case</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024-01-20</v>
+        <v>2025-12-24</v>
       </c>
       <c r="B3" t="str">
-        <v>HIV/AIDS</v>
+        <v>severe</v>
       </c>
       <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>San Francisco</v>
+        <v>Dengue</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>Laboratory Confirmation</v>
+        <v>Tagpore</v>
       </c>
       <c r="G3" t="str">
-        <v>Another example - replace with your actual data</v>
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Historical surveillance data</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024-02-01</v>
+        <v>2025-12-24</v>
       </c>
       <c r="B4" t="str">
-        <v>Other</v>
+        <v>moderate</v>
       </c>
       <c r="C4" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="B5" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G5" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="B6" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Salvacion</v>
+      </c>
+      <c r="G6" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="B7" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B8" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G8" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B9" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G9" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B10" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D10" t="str">
         <v>Typhoid Fever</v>
       </c>
-      <c r="D4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G10" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B11" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Little Panay</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B12" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="B13" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-12-27</v>
+      </c>
+      <c r="B14" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G14" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-12-27</v>
+      </c>
+      <c r="B15" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Santa Cruz</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-12-28</v>
+      </c>
+      <c r="B16" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G16" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-12-28</v>
+      </c>
+      <c r="B17" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G17" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B18" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G18" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B19" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="B20" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="B21" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G21" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="B22" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Maduao</v>
+      </c>
+      <c r="G22" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="B23" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G23" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="B24" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G24" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="B25" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G25" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-12-31</v>
+      </c>
+      <c r="B26" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G26" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-12-31</v>
+      </c>
+      <c r="B27" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Little Panay</v>
+      </c>
+      <c r="G27" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-12-31</v>
+      </c>
+      <c r="B28" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-12-31</v>
+      </c>
+      <c r="B29" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Dapco</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="B30" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G30" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="B31" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G31" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="B32" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G32" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="B33" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-02</v>
+      </c>
+      <c r="B34" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G34" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-03</v>
+      </c>
+      <c r="B35" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G35" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-03</v>
+      </c>
+      <c r="B36" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G36" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-03</v>
+      </c>
+      <c r="B37" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G37" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-04</v>
+      </c>
+      <c r="B38" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G38" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-04</v>
+      </c>
+      <c r="B39" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-04</v>
+      </c>
+      <c r="B40" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G40" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2026-01-04</v>
+      </c>
+      <c r="B41" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Dapco</v>
+      </c>
+      <c r="G41" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B42" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B43" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B44" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2026-01-06</v>
+      </c>
+      <c r="B45" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G45" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B46" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G46" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B47" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G47" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B48" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B49" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G49" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B50" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G50" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B51" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G51" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B52" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G52" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B53" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Quezon</v>
+      </c>
+      <c r="G53" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B54" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B55" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Salvacion</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B56" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G56" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B57" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Santa Cruz</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B58" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Quezon</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B59" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G59" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B60" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G60" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B61" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G61" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B62" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G62" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B63" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G63" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B64" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G64" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B65" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G65" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B66" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G66" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B67" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B68" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G68" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Forest workers affected - endemic area monitoring intensified</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B69" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G69" t="str">
+        <v>CHO Respiratory Surveillance</v>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B70" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G70" t="str">
+        <v>CHO Respiratory Surveillance</v>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B71" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D71" t="str">
+        <v/>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G71" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B72" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G72" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B73" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G73" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B74" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G74" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B75" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D75" t="str">
+        <v/>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G75" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Contact tracing ongoing</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B76" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D76" t="str">
+        <v/>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H76" t="str">
+        <v>City-wide epidemic alert - immediate response required</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B77" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H77" t="str">
+        <v>City-wide epidemic alert - immediate response required</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B78" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G78" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B79" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G79" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B80" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G80" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B81" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G81" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B82" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D82" t="str">
+        <v/>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G82" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B83" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D83" t="str">
+        <v/>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G83" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B84" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G84" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B85" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G85" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B86" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Maduao</v>
+      </c>
+      <c r="G86" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B87" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Maduao</v>
+      </c>
+      <c r="G87" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B88" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G88" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B89" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D89" t="str">
+        <v/>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G89" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>2026-01-10</v>
+      </c>
+      <c r="B90" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G90" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B91" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D91" t="str">
+        <v/>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B92" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D92" t="str">
+        <v/>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G92" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B93" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D93" t="str">
+        <v/>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Quezon</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B94" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D94" t="str">
+        <v/>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G94" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B95" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D95" t="str">
+        <v/>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Mabunao</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B96" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D96" t="str">
+        <v/>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G96" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B97" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D97" t="str">
+        <v/>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G97" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B98" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D98" t="str">
+        <v/>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G98" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B99" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D99" t="str">
+        <v/>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G99" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B100" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D100" t="str">
+        <v/>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G100" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B101" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D101" t="str">
+        <v/>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G101" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B102" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G102" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B103" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D103" t="str">
+        <v/>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G103" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B104" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B105" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D105" t="str">
+        <v/>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B106" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D106" t="str">
+        <v/>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G106" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B107" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Lower Panaga (Roxas)</v>
+      </c>
+      <c r="G107" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B108" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D108" t="str">
+        <v/>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B109" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D109" t="str">
+        <v/>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G109" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B110" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D110" t="str">
+        <v/>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G110" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B111" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D111" t="str">
+        <v/>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Maduao</v>
+      </c>
+      <c r="G111" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B112" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G112" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B113" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G113" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B114" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D114" t="str">
+        <v/>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>2026-01-11</v>
+      </c>
+      <c r="B115" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D115" t="str">
+        <v/>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G115" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H115" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B116" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D116" t="str">
+        <v/>
+      </c>
+      <c r="E116">
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <v>Poblacion</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Clinic Records</v>
-      </c>
-      <c r="G4" t="str">
-        <v>For "Other" disease type, Custom Disease Name is required</v>
+      <c r="F116" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G116" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H116" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B117" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D117" t="str">
+        <v/>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G117" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Contact tracing ongoing</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B118" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D118" t="str">
+        <v/>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H118" t="str">
+        <v>City-wide epidemic alert - immediate response required</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B119" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D119" t="str">
+        <v/>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="str">
+        <v>San Francisco (Pob.)</v>
+      </c>
+      <c r="G119" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B120" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D120" t="str">
+        <v/>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G120" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B121" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D121" t="str">
+        <v/>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G121" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B122" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D122" t="str">
+        <v/>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G122" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B123" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D123" t="str">
+        <v/>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G123" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H123" t="str">
+        <v>School-based measles epidemic - mass immunization campaign launched</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B124" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D124" t="str">
+        <v/>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G124" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H124" t="str">
+        <v>School-based measles epidemic - mass immunization campaign launched</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B125" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D125" t="str">
+        <v/>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G125" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B126" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D126" t="str">
+        <v/>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G126" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B127" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D127" t="str">
+        <v/>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B128" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D128" t="str">
+        <v/>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G128" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B129" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D129" t="str">
+        <v/>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G129" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B130" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D130" t="str">
+        <v/>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G130" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H130" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B131" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D131" t="str">
+        <v/>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G131" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H131" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B132" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D132" t="str">
+        <v/>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Salvacion</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B133" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D133" t="str">
+        <v/>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G133" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H133" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B134" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D134" t="str">
+        <v/>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Mabunao</v>
+      </c>
+      <c r="G134" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B135" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D135" t="str">
+        <v/>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Santa Cruz</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B136" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D136" t="str">
+        <v/>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Quezon</v>
+      </c>
+      <c r="G136" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B137" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D137" t="str">
+        <v/>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G137" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B138" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D138" t="str">
+        <v/>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G138" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B139" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D139" t="str">
+        <v/>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G139" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B140" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D140" t="str">
+        <v/>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G140" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B141" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D141" t="str">
+        <v/>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G141" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B142" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D142" t="str">
+        <v/>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G142" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B143" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D143" t="str">
+        <v/>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B144" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D144" t="str">
+        <v/>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G144" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B145" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G145" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B146" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D146" t="str">
+        <v/>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G146" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B147" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G147" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B148" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Lower Panaga (Roxas)</v>
+      </c>
+      <c r="G148" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H148" t="str">
+        <v>Daycare center affected</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B149" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D149" t="str">
+        <v/>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B150" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D150" t="str">
+        <v/>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G150" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B151" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D151" t="str">
+        <v/>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B152" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G152" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H152" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B153" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D153" t="str">
+        <v/>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H153" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B154" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D154" t="str">
+        <v/>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G154" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B155" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D155" t="str">
+        <v/>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G155" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B156" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D156" t="str">
+        <v/>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G156" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B157" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D157" t="str">
+        <v/>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G157" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B158" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D158" t="str">
+        <v/>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G158" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B159" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D159" t="str">
+        <v/>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G159" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B160" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D160" t="str">
+        <v/>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G160" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B161" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D161" t="str">
+        <v/>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G161" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B162" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D162" t="str">
+        <v/>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G162" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B163" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D163" t="str">
+        <v/>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G163" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B164" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D164" t="str">
+        <v/>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G164" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B165" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G165" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>2026-01-14</v>
+      </c>
+      <c r="B166" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G166" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B167" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D167" t="str">
+        <v/>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G167" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H167" t="str">
+        <v>Contact tracing ongoing</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B168" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D168" t="str">
+        <v/>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G168" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H168" t="str">
+        <v>City-wide epidemic alert - immediate response required</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B169" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D169" t="str">
+        <v/>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G169" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B170" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D170" t="str">
+        <v/>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G170" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B171" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D171" t="str">
+        <v/>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G171" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H171" t="str">
+        <v>Dengue Hemorrhagic Fever - Critical epidemic alert</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B172" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D172" t="str">
+        <v/>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G172" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B173" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D173" t="str">
+        <v/>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G173" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B174" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D174" t="str">
+        <v/>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G174" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B175" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D175" t="str">
+        <v/>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G175" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B176" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D176" t="str">
+        <v/>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B177" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D177" t="str">
+        <v/>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G177" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B178" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D178" t="str">
+        <v/>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G178" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B179" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G179" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B180" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D180" t="str">
+        <v/>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G180" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H180" t="str">
+        <v>Unvaccinated children affected</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B181" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D181" t="str">
+        <v/>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G181" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B182" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D182" t="str">
+        <v/>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G182" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B183" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D183" t="str">
+        <v/>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G183" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H183" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B184" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D184" t="str">
+        <v/>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G184" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H184" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B185" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D185" t="str">
+        <v/>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G185" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H185" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B186" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D186" t="str">
+        <v/>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G186" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H186" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B187" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D187" t="str">
+        <v/>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G187" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H187" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B188" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D188" t="str">
+        <v/>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G188" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H188" t="str">
+        <v>City-wide epidemic alert - immediate response required</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B189" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D189" t="str">
+        <v/>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G189" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B190" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D190" t="str">
+        <v/>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G190" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B191" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D191" t="str">
+        <v/>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G191" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B192" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D192" t="str">
+        <v/>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G192" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H192" t="str">
+        <v>Dengue Hemorrhagic Fever - Critical epidemic alert</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B193" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D193" t="str">
+        <v/>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G193" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H193" t="str">
+        <v>Dengue Hemorrhagic Fever - Critical epidemic alert</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B194" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D194" t="str">
+        <v/>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G194" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B195" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D195" t="str">
+        <v/>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G195" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B196" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D196" t="str">
+        <v/>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G196" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B197" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D197" t="str">
+        <v/>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G197" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B198" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D198" t="str">
+        <v/>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G198" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B199" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D199" t="str">
+        <v/>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G199" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H199" t="str">
+        <v>Cluster outbreak detected - vector control deployed</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B200" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G200" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B201" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G201" t="str">
+        <v>CHO Respiratory Surveillance</v>
+      </c>
+      <c r="H201" t="str">
+        <v>Respiratory outbreak - elderly population affected</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B202" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D202" t="str">
+        <v/>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G202" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B203" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D203" t="str">
+        <v/>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G203" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B204" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Leptospirosis</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G204" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H204" t="str">
+        <v>Flooding-related outbreak</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B205" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D205" t="str">
+        <v/>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G205" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H205" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B206" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D206" t="str">
+        <v/>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="str">
+        <v>Maduao</v>
+      </c>
+      <c r="G206" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H206" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B207" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D207" t="str">
+        <v/>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G207" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H207" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B208" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D208" t="str">
+        <v/>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G208" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H208" t="str">
+        <v>Routine dog bite case</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B209" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D209" t="str">
+        <v/>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G209" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H209" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B210" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="str">
+        <v>New Pandan (Pob.)</v>
+      </c>
+      <c r="G210" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H210" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B211" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D211" t="str">
+        <v/>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="str">
+        <v>Buenavista</v>
+      </c>
+      <c r="G211" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H211" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B212" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D212" t="str">
+        <v/>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G212" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H212" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B213" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D213" t="str">
+        <v/>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G213" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H213" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B214" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D214" t="str">
+        <v/>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G214" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H214" t="str">
+        <v>Contact tracing ongoing</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B215" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D215" t="str">
+        <v/>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="str">
+        <v>Dapco</v>
+      </c>
+      <c r="G215" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H215" t="str">
+        <v>Endemic area - agricultural workers affected</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B216" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D216" t="str">
+        <v/>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G216" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H216" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B217" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D217" t="str">
+        <v/>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="str">
+        <v>Mabunao</v>
+      </c>
+      <c r="G217" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H217" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B218" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D218" t="str">
+        <v/>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="str">
+        <v>Salvacion</v>
+      </c>
+      <c r="G218" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H218" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B219" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D219" t="str">
+        <v/>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G219" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H219" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B220" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D220" t="str">
+        <v/>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G220" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H220" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B221" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D221" t="str">
+        <v/>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G221" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H221" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B222" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D222" t="str">
+        <v/>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G222" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H222" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B223" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D223" t="str">
+        <v/>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G223" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H223" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B224" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D224" t="str">
+        <v/>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G224" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H224" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B225" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D225" t="str">
+        <v/>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G225" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H225" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B226" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D226" t="str">
+        <v/>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G226" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H226" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B227" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D227" t="str">
+        <v/>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G227" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H227" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B228" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D228" t="str">
+        <v/>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="str">
+        <v>J.P. Laurel</v>
+      </c>
+      <c r="G228" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B229" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D229" t="str">
+        <v/>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G229" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H229" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B230" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D230" t="str">
+        <v/>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G230" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H230" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B231" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G231" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H231" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B232" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G232" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H232" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B233" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="str">
+        <v>Little Panay</v>
+      </c>
+      <c r="G233" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H233" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B234" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D234" t="str">
+        <v/>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="str">
+        <v>Little Panay</v>
+      </c>
+      <c r="G234" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H234" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>2026-01-17</v>
+      </c>
+      <c r="B235" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D235" t="str">
+        <v/>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G235" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H235" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B236" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D236" t="str">
+        <v/>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G236" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H236" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B237" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D237" t="str">
+        <v/>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="str">
+        <v>Dapco</v>
+      </c>
+      <c r="G237" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H237" t="str">
+        <v>Endemic area - agricultural workers affected</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B238" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D238" t="str">
+        <v/>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G238" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H238" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B239" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D239" t="str">
+        <v/>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G239" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H239" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B240" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D240" t="str">
+        <v/>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G240" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H240" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B241" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D241" t="str">
+        <v/>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G241" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H241" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B242" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D242" t="str">
+        <v/>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G242" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H242" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B243" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D243" t="str">
+        <v/>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G243" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H243" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B244" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D244" t="str">
+        <v/>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G244" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H244" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B245" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D245" t="str">
+        <v/>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G245" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H245" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B246" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D246" t="str">
+        <v/>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G246" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H246" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B247" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D247" t="str">
+        <v/>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G247" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H247" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B248" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D248" t="str">
+        <v/>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G248" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H248" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B249" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D249" t="str">
+        <v/>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G249" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H249" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B250" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D250" t="str">
+        <v/>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G250" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H250" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>2026-01-18</v>
+      </c>
+      <c r="B251" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G251" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H251" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B252" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D252" t="str">
+        <v/>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="str">
+        <v>Dapco</v>
+      </c>
+      <c r="G252" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H252" t="str">
+        <v>Endemic area - agricultural workers affected</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B253" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D253" t="str">
+        <v/>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G253" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H253" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B254" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D254" t="str">
+        <v/>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G254" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H254" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B255" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D255" t="str">
+        <v/>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" t="str">
+        <v>Manay</v>
+      </c>
+      <c r="G255" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H255" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B256" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D256" t="str">
+        <v/>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" t="str">
+        <v>Upper Licanan</v>
+      </c>
+      <c r="G256" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H256" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B257" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D257" t="str">
+        <v/>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G257" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H257" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B258" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D258" t="str">
+        <v/>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G258" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H258" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B259" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D259" t="str">
+        <v/>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="str">
+        <v>Little Panay</v>
+      </c>
+      <c r="G259" t="str">
+        <v>Rabies Prevention Program Report</v>
+      </c>
+      <c r="H259" t="str">
+        <v>Confirmed rabies case - immediate post-exposure prophylaxis administered</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B260" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Leptospirosis</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G260" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H260" t="str">
+        <v>Water contamination suspected</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B261" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D261" t="str">
+        <v/>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G261" t="str">
+        <v>Provincial Health Office Report</v>
+      </c>
+      <c r="H261" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B262" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D262" t="str">
+        <v/>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G262" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H262" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B263" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D263" t="str">
+        <v/>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="str">
+        <v>Outside Zone</v>
+      </c>
+      <c r="G263" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H263" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B264" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="str">
+        <v>New Malaga (Dalisay)</v>
+      </c>
+      <c r="G264" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H264" t="str">
+        <v>Food safety investigation initiated</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B265" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D265" t="str">
+        <v/>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G265" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H265" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B266" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D266" t="str">
+        <v/>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G266" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H266" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B267" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D267" t="str">
+        <v/>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G267" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H267" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>2026-01-19</v>
+      </c>
+      <c r="B268" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G268" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H268" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B269" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D269" t="str">
+        <v/>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G269" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H269" t="str">
+        <v>Outbreak alert issued - clustered cases detected</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B270" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D270" t="str">
+        <v/>
+      </c>
+      <c r="E270">
+        <v>3</v>
+      </c>
+      <c r="F270" t="str">
+        <v>Gredu (Poblacion)</v>
+      </c>
+      <c r="G270" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H270" t="str">
+        <v>Part of ongoing outbreak investigation</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B271" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D271" t="str">
+        <v/>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271" t="str">
+        <v>Santa Cruz</v>
+      </c>
+      <c r="G271" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H271" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B272" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D272" t="str">
+        <v/>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G272" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H272" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B273" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D273" t="str">
+        <v/>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G273" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H273" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B274" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D274" t="str">
+        <v/>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G274" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H274" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B275" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C275" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D275" t="str">
+        <v/>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G275" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H275" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B276" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C276" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D276" t="str">
+        <v/>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G276" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H276" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B277" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C277" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D277" t="str">
+        <v/>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="str">
+        <v>San Roque</v>
+      </c>
+      <c r="G277" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H277" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B278" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C278" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D278" t="str">
+        <v/>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="str">
+        <v>San Pedro</v>
+      </c>
+      <c r="G278" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H278" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B279" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C279" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D279" t="str">
+        <v/>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" t="str">
+        <v>Kiotoy</v>
+      </c>
+      <c r="G279" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H279" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B280" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D280" t="str">
+        <v/>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G280" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H280" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B281" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D281" t="str">
+        <v/>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="str">
+        <v>New Malitbog</v>
+      </c>
+      <c r="G281" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H281" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B282" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C282" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D282" t="str">
+        <v/>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G282" t="str">
+        <v>DOH Region XI Bulletin</v>
+      </c>
+      <c r="H282" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B283" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C283" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D283" t="str">
+        <v/>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="str">
+        <v>Cagangohan</v>
+      </c>
+      <c r="G283" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H283" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B284" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C284" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D284" t="str">
+        <v/>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="str">
+        <v>Waterfall</v>
+      </c>
+      <c r="G284" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H284" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B285" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C285" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="str">
+        <v>Sindaton</v>
+      </c>
+      <c r="G285" t="str">
+        <v>CHO Respiratory Surveillance</v>
+      </c>
+      <c r="H285" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B286" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D286" t="str">
+        <v/>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G286" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H286" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B287" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C287" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D287" t="str">
+        <v/>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G287" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H287" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B288" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C288" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D288" t="str">
+        <v/>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G288" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H288" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B289" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C289" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="str">
+        <v>Lower Panaga (Roxas)</v>
+      </c>
+      <c r="G289" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H289" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B290" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C290" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D290" t="str">
+        <v/>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G290" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H290" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B291" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C291" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D291" t="str">
+        <v/>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G291" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H291" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B292" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C292" t="str">
+        <v>Animal Bite</v>
+      </c>
+      <c r="D292" t="str">
+        <v/>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="str">
+        <v>Mabunao</v>
+      </c>
+      <c r="G292" t="str">
+        <v>CHO Animal Bite Center</v>
+      </c>
+      <c r="H292" t="str">
+        <v>Possible rabies exposure - monitoring patient</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B293" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D293" t="str">
+        <v/>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" t="str">
+        <v>Consolacion</v>
+      </c>
+      <c r="G293" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H293" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B294" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D294" t="str">
+        <v>Pneumonia</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" t="str">
+        <v>Santo Niño (Pob.)</v>
+      </c>
+      <c r="G294" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H294" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B295" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C295" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D295" t="str">
+        <v/>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G295" t="str">
+        <v>CHO Daily Report</v>
+      </c>
+      <c r="H295" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B296" t="str">
+        <v>mild</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D296" t="str">
+        <v/>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="str">
+        <v>Datu Abdul Dadia</v>
+      </c>
+      <c r="G296" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H296" t="str">
+        <v>Historical surveillance data</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B297" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D297" t="str">
+        <v/>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G297" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H297" t="str">
+        <v>School-based outbreak detected</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B298" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C298" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D298" t="str">
+        <v/>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" t="str">
+        <v>Kasilak</v>
+      </c>
+      <c r="G298" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H298" t="str">
+        <v>Contact tracing ongoing</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B299" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C299" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D299" t="str">
+        <v/>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" t="str">
+        <v>San Vicente</v>
+      </c>
+      <c r="G299" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H299" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B300" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C300" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D300" t="str">
+        <v/>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" t="str">
+        <v>Salvacion</v>
+      </c>
+      <c r="G300" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H300" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B301" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C301" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D301" t="str">
+        <v/>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301" t="str">
+        <v>A.O. Floirendo</v>
+      </c>
+      <c r="G301" t="str">
+        <v>Laboratory Confirmation</v>
+      </c>
+      <c r="H301" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B302" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D302" t="str">
+        <v/>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" t="str">
+        <v>Kauswagan</v>
+      </c>
+      <c r="G302" t="str">
+        <v>CHO Disease Surveillance</v>
+      </c>
+      <c r="H302" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B303" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D303" t="str">
+        <v/>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="str">
+        <v>Nanyo</v>
+      </c>
+      <c r="G303" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H303" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B304" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C304" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D304" t="str">
+        <v/>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" t="str">
+        <v>Katipunan</v>
+      </c>
+      <c r="G304" t="str">
+        <v>DOH Emergency Response Team</v>
+      </c>
+      <c r="H304" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B305" t="str">
+        <v>critical</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D305" t="str">
+        <v/>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G305" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H305" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B306" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C306" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D306" t="str">
+        <v/>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306" t="str">
+        <v>Tagpore</v>
+      </c>
+      <c r="G306" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H306" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B307" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D307" t="str">
+        <v>Typhoid Fever</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307" t="str">
+        <v>Malativas</v>
+      </c>
+      <c r="G307" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H307" t="str">
+        <v>Water contamination suspected - sanitation measures implemented</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B308" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C308" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Leptospirosis</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G308" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H308" t="str">
+        <v>Water contamination suspected</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B309" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Dengue</v>
+      </c>
+      <c r="D309" t="str">
+        <v/>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G309" t="str">
+        <v>Health Center Report</v>
+      </c>
+      <c r="H309" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B310" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Malaria</v>
+      </c>
+      <c r="D310" t="str">
+        <v/>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" t="str">
+        <v>Cacao</v>
+      </c>
+      <c r="G310" t="str">
+        <v>DOH Malaria Control Program</v>
+      </c>
+      <c r="H310" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B311" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D311" t="str">
+        <v/>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311" t="str">
+        <v>Tibungol</v>
+      </c>
+      <c r="G311" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H311" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B312" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C312" t="str">
+        <v>Measles</v>
+      </c>
+      <c r="D312" t="str">
+        <v/>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" t="str">
+        <v>San Nicolas</v>
+      </c>
+      <c r="G312" t="str">
+        <v>DOH Measles Surveillance</v>
+      </c>
+      <c r="H312" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B313" t="str">
+        <v>severe</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D313" t="str">
+        <v>Hand-Foot-Mouth Disease</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313" t="str">
+        <v>New Visayas</v>
+      </c>
+      <c r="G313" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H313" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B314" t="str">
+        <v>moderate</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Custom Disease</v>
+      </c>
+      <c r="D314" t="str">
+        <v>Diarrhea</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" t="str">
+        <v>Southern Davao</v>
+      </c>
+      <c r="G314" t="str">
+        <v>CHO Special Disease Monitoring</v>
+      </c>
+      <c r="H314" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H314"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +9029,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>VALID BARANGAY NAMES</v>
+        <v>VALID BARANGAY NAMES (41 total)</v>
       </c>
     </row>
     <row r="2">
@@ -841,7 +9049,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A. Bonifacio</v>
+        <v>A.O. Floirendo</v>
       </c>
     </row>
     <row r="6">
@@ -946,92 +9154,107 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>New Malaga (New Malitbog)</v>
+        <v>New Malaga (Dalisay)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>New Pandan (Poblacion)</v>
+        <v>New Malitbog</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>New Visayas</v>
+        <v>New Pandan (Pob.)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Quezon</v>
+        <v>New Visayas</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Salvacion</v>
+        <v>Outside Zone</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>San Francisco (Poblacion)</v>
+        <v>Quezon</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>San Nicolas</v>
+        <v>Salvacion</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>San Pedro</v>
+        <v>San Francisco (Pob.)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>San Roque</v>
+        <v>San Nicolas</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>San Vicente</v>
+        <v>San Pedro</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Santa Cruz</v>
+        <v>San Roque</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Santo Niño (Poblacion)</v>
+        <v>San Vicente</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Sindaton</v>
+        <v>Santa Cruz</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Southern Davao</v>
+        <v>Santo Niño (Pob.)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Tagpore</v>
+        <v>Sindaton</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Tibungol</v>
+        <v>Southern Davao</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>Tagpore</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Tibungol</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v>Upper Licanan</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Waterfall</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A45"/>
   </ignoredErrors>
 </worksheet>
 </file>